--- a/uWaterloo work/SYDE 101L/y29lin-Exploratory.xlsx
+++ b/uWaterloo work/SYDE 101L/y29lin-Exploratory.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linyu\project_tracker\uWaterloo work\SYDE 101L\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47A671B2-4665-4B77-A389-1E6955FF1320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA97B876-55A7-4A19-8156-233A46709427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log transform" sheetId="2" r:id="rId1"/>
     <sheet name="original function" sheetId="3" r:id="rId2"/>
     <sheet name="y29lin-Exploratory" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Frequency</t>
   </si>
@@ -32,11 +45,14 @@
   <si>
     <t>log transform</t>
   </si>
+  <si>
+    <t>perdicted fn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2546,7 +2562,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-EB15-4057-AB2F-953FBD6AE865}"/>
                   </c:ext>
@@ -2809,6 +2825,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2828,7 +2845,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11618250552179776"/>
+          <c:y val="2.22354329662179E-2"/>
+          <c:w val="0.86832828005874518"/>
+          <c:h val="0.88800758901534593"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2868,6 +2895,605 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'y29lin-Exploratory'!$A$2:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'y29lin-Exploratory'!$B$2:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="91"/>
+                <c:pt idx="0">
+                  <c:v>4.74486493285906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2979566069062303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4168728250217502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3169510356122798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9742481352509702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6191928767783801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.67601636301201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1317126195440599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6491466909094901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8298757088986699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.76865456771203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0282616569651601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7411672891989398</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6748124834240201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.85093708696157</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.35304618486603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.24445332582851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2960779428429099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0027515701774798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9735903361387199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1029846439521398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9345590852622001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8586974523522499</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.89001716930867</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1647757992591199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0928956915090899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8347033240444199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7750899419218999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.56102529962112</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.47479113890348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4812443698451701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7177670732282699</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6390466407719499</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5724529976521799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3498776028048001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5006404401449001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.32353469241417</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1431889944061999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3801972368830799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1231082798598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0985820430930999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.06564161766097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.23166426407473</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.94019433969472799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.06325476041308</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.01764284754353</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.03878241353675</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99817134552471698</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.00962873154518</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98289148501509005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.82551278180019105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92689635979299101</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.81548771137060505</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.88465200526281695</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.86881300105395598</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80568620422195203</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.68964869433834797</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.70972665833049497</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.67553789744463999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66494178470630705</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59163724690069797</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61685594818851397</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.59274788710172499</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65857862954061797</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.57070474546487104</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.455025557193241</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47993020990021701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.52247886789986697</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.43906966583103102</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.46348076448993197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.51873930884941999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47879806624822202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.42001304000752199</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45610419274944602</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38700639567659101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.36274329905867603</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.414793873623439</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.413761022640108</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30028431102264302</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.379300033631566</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.29276818981143499</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.344201861130151</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.379187406857665</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.31871485063969002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.32930148668890102</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.27596209350560502</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.258499733435472</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.235618913115822</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.29196839691218801</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.24740208648489501</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.27656230825195199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68CB-454E-A39C-F1FDA2777C34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>perdict function+'y29lin-Exploratory'!$A$2:$A$92</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -2879,15 +3505,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="exp"/>
-            <c:forward val="3"/>
-            <c:backward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.4024646393576616E-3"/>
-                  <c:y val="-0.27991643591584336"/>
+                  <c:x val="-0.10762343025487815"/>
+                  <c:y val="-0.28116362779763371"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2896,7 +3520,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2910,11 +3534,11 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                      <a:t>V(F) = 5.42e</a:t>
+                      <a:t>f(V) = 5.42e</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="en-US" sz="1600" baseline="30000"/>
-                      <a:t>-0.3065F</a:t>
+                      <a:t>-0.3065x</a:t>
                     </a:r>
                     <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
@@ -2933,7 +3557,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -2952,10 +3576,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'y29lin-Exploratory'!$A$2:$A$92</c:f>
+              <c:f>'y29lin-Exploratory'!$A$2:$A$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3234,282 +3858,282 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'y29lin-Exploratory'!$B$2:$B$92</c:f>
+              <c:f>'y29lin-Exploratory'!$D$2:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="91"/>
                 <c:pt idx="0">
-                  <c:v>4.74486493285906</c:v>
+                  <c:v>3.9892203685321315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2979566069062303</c:v>
+                  <c:v>3.8688055479143171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4168728250217502</c:v>
+                  <c:v>3.7520254548083738</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3169510356122798</c:v>
+                  <c:v>3.6387703747786722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9742481352509702</c:v>
+                  <c:v>3.528933905125426</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6191928767783801</c:v>
+                  <c:v>3.422412854919779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.67601636301201</c:v>
+                  <c:v>3.3191071480563332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1317126195440599</c:v>
+                  <c:v>3.2189197292320455</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6491466909094901</c:v>
+                  <c:v>3.1217564727631526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8298757088986699</c:v>
+                  <c:v>3.0275260941544637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.76865456771203</c:v>
+                  <c:v>2.9361400643379398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0282616569651601</c:v>
+                  <c:v>2.8475125264999823</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7411672891989398</c:v>
+                  <c:v>2.7615602154192991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6748124834240201</c:v>
+                  <c:v>2.6782023792395528</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.85093708696157</c:v>
+                  <c:v>2.5973607036033184</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.35304618486603</c:v>
+                  <c:v>2.5189592380760488</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.24445332582851</c:v>
+                  <c:v>2.442924324790944</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2960779428429099</c:v>
+                  <c:v>2.369184529247677</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0027515701774798</c:v>
+                  <c:v>2.2976705731999614</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9735903361387199</c:v>
+                  <c:v>2.2283152695689141</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.1029846439521398</c:v>
+                  <c:v>2.1610534593210615</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9345590852622001</c:v>
+                  <c:v>2.0958219502516826</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8586974523522499</c:v>
+                  <c:v>2.0325594576159864</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.89001716930867</c:v>
+                  <c:v>1.9712065465523321</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1647757992591199</c:v>
+                  <c:v>1.9117055762434143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0928956915090899</c:v>
+                  <c:v>1.854000645762943</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.8347033240444199</c:v>
+                  <c:v>1.7980375415569445</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7750899419218999</c:v>
+                  <c:v>1.7437636865103399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.56102529962112</c:v>
+                  <c:v>1.6911280905509565</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.47479113890348</c:v>
+                  <c:v>1.6400813027445533</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4812443698451701</c:v>
+                  <c:v>1.5905753648358676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7177670732282699</c:v>
+                  <c:v>1.5425637661920202</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6390466407719499</c:v>
+                  <c:v>1.4960014001059621</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5724529976521799</c:v>
+                  <c:v>1.4508445214189012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3498776028048001</c:v>
+                  <c:v>1.4070507054218973</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5006404401449001</c:v>
+                  <c:v>1.3645788079980183</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.32353469241417</c:v>
+                  <c:v>1.3233889269676016</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1431889944061999</c:v>
+                  <c:v>1.2834423646003186</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3801972368830799</c:v>
+                  <c:v>1.2447015912588055</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1231082798598</c:v>
+                  <c:v>1.2071302101397201</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0985820430930999</c:v>
+                  <c:v>1.1706929230790901</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.06564161766097</c:v>
+                  <c:v>1.1353554973898237</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.23166426407473</c:v>
+                  <c:v>1.1010847337002381</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.94019433969472799</c:v>
+                  <c:v>1.0678484347633823</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.06325476041308</c:v>
+                  <c:v>1.0356153752078481</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.01764284754353</c:v>
+                  <c:v>1.0043552722016587</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.03878241353675</c:v>
+                  <c:v>0.97403875700166753</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.99817134552471698</c:v>
+                  <c:v>0.94463734736174032</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.00962873154518</c:v>
+                  <c:v>0.91612342077379749</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.98289148501509005</c:v>
+                  <c:v>0.88847018851657633</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.82551278180019105</c:v>
+                  <c:v>0.86165167048773539</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.92689635979299101</c:v>
+                  <c:v>0.83564267079564825</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.81548771137060505</c:v>
+                  <c:v>0.81041875408796449</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.88465200526281695</c:v>
+                  <c:v>0.78595622259469367</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.86881300105395598</c:v>
+                  <c:v>0.76223209386424229</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.80568620422195203</c:v>
+                  <c:v>0.73922407917149269</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.68964869433834797</c:v>
+                  <c:v>0.71691056257763308</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.70972665833049497</c:v>
+                  <c:v>0.69527058062206948</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.67553789744463999</c:v>
+                  <c:v>0.67428380262733656</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.66494178470630705</c:v>
+                  <c:v>0.65393051159850724</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.59163724690069797</c:v>
+                  <c:v>0.63419158569915302</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.61685594818851397</c:v>
+                  <c:v>0.61504848028645576</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.59274788710172499</c:v>
+                  <c:v>0.59648321048858688</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.65857862954061797</c:v>
+                  <c:v>0.57847833430799367</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.57070474546487104</c:v>
+                  <c:v>0.56101693623471049</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.455025557193241</c:v>
+                  <c:v>0.54408261135430391</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.47993020990021701</c:v>
+                  <c:v>0.52765944993552094</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.52247886789986697</c:v>
+                  <c:v>0.51173202248315874</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.43906966583103102</c:v>
+                  <c:v>0.49628536524211653</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.46348076448993197</c:v>
+                  <c:v>0.4813049661390042</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.51873930884941999</c:v>
+                  <c:v>0.46677675114810935</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.47879806624822202</c:v>
+                  <c:v>0.45268707106890438</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.42001304000752199</c:v>
+                  <c:v>0.43902268870267713</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.45610419274944602</c:v>
+                  <c:v>0.42577076641623385</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.38700639567659101</c:v>
+                  <c:v>0.41291885408099599</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.36274329905867603</c:v>
+                  <c:v>0.40045487737615149</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.414793873623439</c:v>
+                  <c:v>0.38836712644487825</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.413761022640108</c:v>
+                  <c:v>0.37664424489298171</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.30028431102264302</c:v>
+                  <c:v>0.36527521911960498</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.379300033631566</c:v>
+                  <c:v>0.35424936796999684</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.29276818981143499</c:v>
+                  <c:v>0.34355633270060737</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.344201861130151</c:v>
+                  <c:v>0.33318606724708971</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.379187406857665</c:v>
+                  <c:v>0.32312882878606281</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.31871485063969002</c:v>
+                  <c:v>0.31337516858176678</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.32930148668890102</c:v>
+                  <c:v>0.30391592310901416</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.27596209350560502</c:v>
+                  <c:v>0.29474220544409224</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.258499733435472</c:v>
+                  <c:v>0.28584539691553551</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.235618913115822</c:v>
+                  <c:v>0.2772171390069163</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.29196839691218801</c:v>
+                  <c:v>0.26884932550405261</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.24740208648489501</c:v>
+                  <c:v>0.26073409487925198</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.27656230825195199</c:v>
+                  <c:v>0.25286382290543624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,7 +4141,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-68CB-454E-A39C-F1FDA2777C34}"/>
+              <c16:uniqueId val="{0000000B-278C-49A3-B44B-19A2417136CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3795,6 +4419,7 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4911,10 +5536,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4922,10 +5547,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4966,10 +5591,56 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.22317</cdr:x>
+      <cdr:y>0.09017</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.37762</cdr:x>
+      <cdr:y>0.13436</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03CAA29-53EA-DD1A-7FAC-1D4265CFB39F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1933348" y="566964"/>
+          <a:ext cx="1338036" cy="277813"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Transformed</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663214" cy="6287634"/>
+    <xdr:ext cx="8658412" cy="6282765"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4996,6 +5667,93 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19435</cdr:x>
+      <cdr:y>0.04548</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.32049</cdr:x>
+      <cdr:y>0.08389</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DBA8FF-0244-F8B1-DDFF-E16DB79E1DEB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1682750" y="285750"/>
+          <a:ext cx="1092200" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Measured</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.18995</cdr:x>
+      <cdr:y>0.17687</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44957</cdr:x>
+      <cdr:y>0.2264</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B9B127-C128-EF0F-CFBB-F5BF49457F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1644650" y="1111250"/>
+          <a:ext cx="2247900" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>Predicted</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5294,19 +6052,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V85" sqref="V85"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5316,8 +6075,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5328,8 +6090,12 @@
         <f>LN(B2)</f>
         <v>1.557062966505868</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>5.42*EXP(-0.3065*A2)</f>
+        <v>3.9892203685321315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.1000000000000001</v>
       </c>
@@ -5340,8 +6106,12 @@
         <f t="shared" ref="C3:C66" si="0">LN(B3)</f>
         <v>1.4581397020563303</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">5.42*EXP(-0.3065*A3)</f>
+        <v>3.8688055479143171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.2</v>
       </c>
@@ -5352,8 +6122,12 @@
         <f t="shared" si="0"/>
         <v>1.2287257541267376</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>3.7520254548083738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.3</v>
       </c>
@@ -5364,8 +6138,12 @@
         <f t="shared" si="0"/>
         <v>1.4625493742834621</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>3.6387703747786722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.4</v>
       </c>
@@ -5376,8 +6154,12 @@
         <f t="shared" si="0"/>
         <v>1.089991279409847</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>3.528933905125426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.5</v>
       </c>
@@ -5388,8 +6170,12 @@
         <f t="shared" si="0"/>
         <v>1.2862510387619925</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.422412854919779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.6</v>
       </c>
@@ -5400,8 +6186,12 @@
         <f t="shared" si="0"/>
         <v>1.3018296557925679</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.3191071480563332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.7</v>
       </c>
@@ -5412,8 +6202,12 @@
         <f t="shared" si="0"/>
         <v>1.1415800177067119</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.2189197292320455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.8</v>
       </c>
@@ -5424,8 +6218,12 @@
         <f t="shared" si="0"/>
         <v>0.9742375847135134</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.1217564727631526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.9</v>
       </c>
@@ -5436,8 +6234,12 @@
         <f t="shared" si="0"/>
         <v>1.0402327915735958</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>3.0275260941544637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5448,8 +6250,12 @@
         <f t="shared" si="0"/>
         <v>1.0183614865737753</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.9361400643379398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2.1</v>
       </c>
@@ -5460,8 +6266,12 @@
         <f t="shared" si="0"/>
         <v>1.1079887443138412</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.8475125264999823</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2.2000000000000002</v>
       </c>
@@ -5472,8 +6282,12 @@
         <f t="shared" si="0"/>
         <v>1.0083838476359115</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.7615602154192991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2.2999999999999998</v>
       </c>
@@ -5484,8 +6298,12 @@
         <f t="shared" si="0"/>
         <v>0.98387927823630239</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.6782023792395528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2.4</v>
       </c>
@@ -5496,8 +6314,12 @@
         <f t="shared" si="0"/>
         <v>1.0476477426795383</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.5973607036033184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2.5</v>
       </c>
@@ -5508,8 +6330,12 @@
         <f t="shared" si="0"/>
         <v>0.85571073762995808</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.5189592380760488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.6</v>
       </c>
@@ -5520,8 +6346,12 @@
         <f t="shared" si="0"/>
         <v>0.80846198411541703</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.442924324790944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.7</v>
       </c>
@@ -5532,8 +6362,12 @@
         <f t="shared" si="0"/>
         <v>0.83120242511235831</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2.369184529247677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.8</v>
       </c>
@@ -5544,8 +6378,12 @@
         <f t="shared" si="0"/>
         <v>0.69452202012350694</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.2976705731999614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.9</v>
       </c>
@@ -5556,8 +6394,12 @@
         <f t="shared" si="0"/>
         <v>0.67985438965571965</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.2283152695689141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3</v>
       </c>
@@ -5568,8 +6410,12 @@
         <f t="shared" si="0"/>
         <v>0.74335759472154928</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.1610534593210615</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.1</v>
       </c>
@@ -5580,8 +6426,12 @@
         <f t="shared" si="0"/>
         <v>0.65987943760345547</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.0958219502516826</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.2</v>
       </c>
@@ -5592,8 +6442,12 @@
         <f t="shared" si="0"/>
         <v>0.61987594797015044</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2.0325594576159864</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.3</v>
       </c>
@@ -5604,8 +6458,12 @@
         <f t="shared" si="0"/>
         <v>0.63658591332059067</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.9712065465523321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.4</v>
       </c>
@@ -5616,8 +6474,12 @@
         <f t="shared" si="0"/>
         <v>0.77231679916787066</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.9117055762434143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.5</v>
       </c>
@@ -5628,8 +6490,12 @@
         <f t="shared" si="0"/>
         <v>0.7385486053892335</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.854000645762943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.6</v>
       </c>
@@ -5640,8 +6506,12 @@
         <f t="shared" si="0"/>
         <v>0.60688279216544572</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1.7980375415569445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.7</v>
       </c>
@@ -5652,8 +6522,12 @@
         <f t="shared" si="0"/>
         <v>0.57385109314891747</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.7437636865103399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>3.8</v>
       </c>
@@ -5664,8 +6538,12 @@
         <f t="shared" si="0"/>
         <v>0.44534284871849855</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1.6911280905509565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3.9</v>
       </c>
@@ -5676,8 +6554,12 @@
         <f t="shared" si="0"/>
         <v>0.388516379022048</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1.6400813027445533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5688,8 +6570,12 @@
         <f t="shared" si="0"/>
         <v>0.39288252494567222</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1.5905753648358676</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4.0999999999999996</v>
       </c>
@@ -5700,8 +6586,12 @@
         <f t="shared" si="0"/>
         <v>0.54102523417714754</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1.5425637661920202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>4.2</v>
       </c>
@@ -5712,8 +6602,12 @@
         <f t="shared" si="0"/>
         <v>0.49411475620363154</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.4960014001059621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4.3</v>
       </c>
@@ -5724,8 +6618,12 @@
         <f t="shared" si="0"/>
         <v>0.45263681894044649</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.4508445214189012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.4000000000000004</v>
       </c>
@@ -5736,8 +6634,12 @@
         <f t="shared" si="0"/>
         <v>0.30001392375101882</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.4070507054218973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4.5</v>
       </c>
@@ -5748,8 +6650,12 @@
         <f t="shared" si="0"/>
         <v>0.40589197708323826</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1.3645788079980183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>4.5999999999999996</v>
       </c>
@@ -5760,8 +6666,12 @@
         <f t="shared" si="0"/>
         <v>0.28030595497023858</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1.3233889269676016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.7</v>
       </c>
@@ -5772,8 +6682,12 @@
         <f t="shared" si="0"/>
         <v>0.13382172058070754</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1.2834423646003186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>4.8</v>
       </c>
@@ -5784,8 +6698,12 @@
         <f t="shared" si="0"/>
         <v>0.32222641423386311</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1.2447015912588055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4.9000000000000004</v>
       </c>
@@ -5796,8 +6714,12 @@
         <f t="shared" si="0"/>
         <v>0.11610009128609584</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1.2071302101397201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5</v>
       </c>
@@ -5808,8 +6730,12 @@
         <f t="shared" si="0"/>
         <v>9.4020296528916317E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1.1706929230790901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>5.0999999999999996</v>
       </c>
@@ -5820,8 +6746,12 @@
         <f t="shared" si="0"/>
         <v>6.357707565410918E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1.1353554973898237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>5.2</v>
       </c>
@@ -5832,8 +6762,12 @@
         <f t="shared" si="0"/>
         <v>0.20836631504657768</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1.1010847337002381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>5.3</v>
       </c>
@@ -5844,8 +6778,12 @@
         <f t="shared" si="0"/>
         <v>-6.1668680730663075E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1.0678484347633823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5.4</v>
       </c>
@@ -5856,8 +6794,12 @@
         <f t="shared" si="0"/>
         <v>6.1334732369967761E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1.0356153752078481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>5.5</v>
       </c>
@@ -5868,8 +6810,12 @@
         <f t="shared" si="0"/>
         <v>1.7489019186932013E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1.0043552722016587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>5.6</v>
       </c>
@@ -5880,8 +6826,12 @@
         <f t="shared" si="0"/>
         <v>3.8049271068183822E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0.97403875700166753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5.7</v>
       </c>
@@ -5892,8 +6842,12 @@
         <f t="shared" si="0"/>
         <v>-1.830328505003933E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>0.94463734736174032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>5.8</v>
       </c>
@@ -5904,8 +6858,12 @@
         <f t="shared" si="0"/>
         <v>9.582670744947952E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>0.91612342077379749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5.9</v>
       </c>
@@ -5916,8 +6874,12 @@
         <f t="shared" si="0"/>
         <v>-1.7256556571414564E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>0.88847018851657633</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -5928,8 +6890,12 @@
         <f t="shared" si="0"/>
         <v>-0.19175053203474993</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>0.86165167048773539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>6.1</v>
       </c>
@@ -5940,8 +6906,12 @@
         <f t="shared" si="0"/>
         <v>-7.5913521400120365E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>0.83564267079564825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>6.2</v>
       </c>
@@ -5952,8 +6922,12 @@
         <f t="shared" si="0"/>
         <v>-0.2039689258628018</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>0.81041875408796449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>6.3</v>
       </c>
@@ -5964,8 +6938,12 @@
         <f t="shared" si="0"/>
         <v>-0.12256092569555585</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>0.78595622259469367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>6.4</v>
       </c>
@@ -5976,8 +6954,12 @@
         <f t="shared" si="0"/>
         <v>-0.1406273655337269</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.76223209386424229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>6.5</v>
       </c>
@@ -5988,8 +6970,12 @@
         <f t="shared" si="0"/>
         <v>-0.21606093706873974</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>0.73922407917149269</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>6.6</v>
       </c>
@@ -6000,8 +6986,12 @@
         <f t="shared" si="0"/>
         <v>-0.37157294968599497</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0.71691056257763308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>6.7</v>
       </c>
@@ -6012,8 +7002,12 @@
         <f t="shared" si="0"/>
         <v>-0.34287537134069324</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>0.69527058062206948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>6.8</v>
       </c>
@@ -6024,8 +7018,12 @@
         <f t="shared" si="0"/>
         <v>-0.39224602035079059</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>0.67428380262733656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>6.9</v>
       </c>
@@ -6036,8 +7034,12 @@
         <f t="shared" si="0"/>
         <v>-0.40805578395331649</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0.65393051159850724</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>7</v>
       </c>
@@ -6048,8 +7050,12 @@
         <f t="shared" si="0"/>
         <v>-0.52486159052510328</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>0.63419158569915302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>7.1</v>
       </c>
@@ -6060,8 +7066,12 @@
         <f t="shared" si="0"/>
         <v>-0.48311975366684318</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>0.61504848028645576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>7.2</v>
       </c>
@@ -6072,8 +7082,12 @@
         <f t="shared" si="0"/>
         <v>-0.52298611861197575</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>0.59648321048858688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>7.3</v>
       </c>
@@ -6084,8 +7098,12 @@
         <f t="shared" si="0"/>
         <v>-0.41767135787999948</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>0.57847833430799367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7.4</v>
       </c>
@@ -6096,8 +7114,12 @@
         <f t="shared" si="0"/>
         <v>-0.56088328630868534</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>0.56101693623471049</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>7.5</v>
       </c>
@@ -6105,11 +7127,15 @@
         <v>0.455025557193241</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C92" si="1">LN(B67)</f>
+        <f t="shared" ref="C67:C91" si="2">LN(B67)</f>
         <v>-0.78740169195316789</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67">
+        <f t="shared" ref="D67:D92" si="3">5.42*EXP(-0.3065*A67)</f>
+        <v>0.54408261135430391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7.6</v>
       </c>
@@ -6117,11 +7143,15 @@
         <v>0.47993020990021701</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.73411458169244403</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>0.52765944993552094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>7.7</v>
       </c>
@@ -6129,11 +7159,15 @@
         <v>0.52247886789986697</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.64917074017184107</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>0.51173202248315874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>7.8</v>
       </c>
@@ -6141,11 +7175,15 @@
         <v>0.43906966583103102</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.82309718639920415</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>0.49628536524211653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>7.9</v>
       </c>
@@ -6153,11 +7191,15 @@
         <v>0.46348076448993197</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.76899039539849534</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>0.4813049661390042</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>8</v>
       </c>
@@ -6165,11 +7207,15 @@
         <v>0.51873930884941999</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.65635381709650775</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>0.46677675114810935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8.1</v>
       </c>
@@ -6177,11 +7223,15 @@
         <v>0.47879806624822202</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.73647634405287821</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>0.45268707106890438</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>8.1999999999999993</v>
       </c>
@@ -6189,11 +7239,15 @@
         <v>0.42001304000752199</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.86746952054973381</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>0.43902268870267713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>8.3000000000000007</v>
       </c>
@@ -6201,11 +7255,15 @@
         <v>0.45610419274944602</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.78503400269667922</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>0.42577076641623385</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>8.4</v>
       </c>
@@ -6213,11 +7271,15 @@
         <v>0.38700639567659101</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.94931405979281214</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>0.41291885408099599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>8.5</v>
       </c>
@@ -6225,11 +7287,15 @@
         <v>0.36274329905867603</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0140598600041022</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>0.40045487737615149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>8.6</v>
       </c>
@@ -6237,11 +7303,15 @@
         <v>0.414793873623439</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.87997357220681083</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>0.38836712644487825</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>8.6999999999999993</v>
       </c>
@@ -6249,11 +7319,15 @@
         <v>0.413761022640108</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.8824667118237115</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>0.37664424489298171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>8.8000000000000007</v>
       </c>
@@ -6261,11 +7335,15 @@
         <v>0.30028431102264302</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2030255497044791</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>0.36527521911960498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>8.9</v>
       </c>
@@ -6273,11 +7351,15 @@
         <v>0.379300033631566</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.96942774161983192</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>0.35424936796999684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>9</v>
       </c>
@@ -6285,11 +7367,15 @@
         <v>0.29276818981143499</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2283741441512688</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>0.34355633270060737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>9.1</v>
       </c>
@@ -6297,11 +7383,15 @@
         <v>0.344201861130151</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0665269881009229</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>0.33318606724708971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>9.1999999999999993</v>
       </c>
@@ -6309,11 +7399,15 @@
         <v>0.379187406857665</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.96972471891626844</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>0.32312882878606281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>9.3000000000000007</v>
       </c>
@@ -6321,11 +7415,15 @@
         <v>0.31871485063969002</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.143458461092894</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>0.31337516858176678</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>9.4</v>
       </c>
@@ -6333,11 +7431,15 @@
         <v>0.32930148668890102</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.110781574915503</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>0.30391592310901416</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>9.5</v>
       </c>
@@ -6345,11 +7447,15 @@
         <v>0.27596209350560502</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2874917650683104</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>0.29474220544409224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>9.6</v>
       </c>
@@ -6357,11 +7463,15 @@
         <v>0.258499733435472</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3528606162315853</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>0.28584539691553551</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9.6999999999999993</v>
       </c>
@@ -6369,11 +7479,15 @@
         <v>0.235618913115822</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.4455395540437361</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>0.2772171390069163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9.8000000000000007</v>
       </c>
@@ -6381,11 +7495,15 @@
         <v>0.29196839691218801</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2311097123238983</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>0.26884932550405261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>9.9</v>
       </c>
@@ -6393,11 +7511,15 @@
         <v>0.24740208648489501</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.3967403854097773</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>0.26073409487925198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>10</v>
       </c>
@@ -6407,6 +7529,10 @@
       <c r="C92">
         <f>LN(B92)</f>
         <v>-1.2853191371064041</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>0.25286382290543624</v>
       </c>
     </row>
   </sheetData>
